--- a/Failure_DB_List_2_updated.xlsx
+++ b/Failure_DB_List_2_updated.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QT 2025\BESS Failure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48C8046-7866-4658-A172-30B0E77A32B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B8561-F8BA-48D8-AA02-37A973EB9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798CB373-87E7-49EA-BBB3-39A2A4BDAAA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Failure_DB_List_1_updated" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Failure_DB_List_2_updated" sheetId="7" r:id="rId1"/>
+    <sheet name="Failure_DB_List_1_updated" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="661">
   <si>
     <t>Location</t>
   </si>
@@ -1578,687 +1578,6 @@
     <t>36.3400,140.4500|Japan, Ibaraki Prefecture 21.6600,-157.9200|US, HI, Kahuku 35.1981,-111.6513|US, AZ, Flagstaff 48.1168,-123.4352|US, WA, Port Angeles 42.9997,-88.0778|US, WI, Franklin 37.5412,112.3389|China, Shanxi 35.4333,126.7000|South Korea, North Jeolla, Gochang 50.7833,4.3167|Belgium, Drogenbos 37.5412,112.3389|China, Shanxi 35.8617,127.9175|South Korea, North Gyeongsang, Gyeongsan 34.7933,126.6967|South Korea, South Jeolla, Yeongam 35.9700,126.8000|South Korea, North Jeolla, Gunsan 34.5400,126.5900|South Korea, South Jeolla, Haenam 35.4300,128.6700|South Korea, South Gyeongsang, Geochang 36.4800,127.2900|South Korea, Sejong 36.9600,127.7000|South Korea, Chungcheongbuk-do, Yeongdong 36.7300,126.1300|South Korea, Chungcheongnam, Taean 33.3617,126.5292|South Korea, Jeju 37.2800,127.1100|South Korea, Gyeonggi, Yongin 36.8900,128.6000|South Korea, North Gyeongsang, Yeongju 36.8200,127.1500|South Korea, South Chungcheong, Cheonan 36.6100,128.1700|South Korea, Gyeongsangbuk-do, Mungyeong 35.4300,128.6700|South Korea, South Gyeongsang, Geochang 37.1400,128.2100|South Korea, North Chungcheong, Jecheon 37.4400,129.1700|South Korea, Gangwon, Samcheok 35.3300,129.0300|South Korea, South Gyeongsangnam, Yangsan 34.3500,126.7400|South Korea, South Jeolla, Wando 35.6100,126.8800|South Korea, North Jeolla, Jangsu 35.5500,129.3200|South Korea, Ulsan 45.3700,-122.7700|US, OR, Tualatin 33.6283,-112.3522|US, AZ, Surprise 36.3300,128.3700|South Korea, North Gyeongsang, Chilgok 35.6100,126.8800|South Korea, North Jeolla, Jangsu 36.6800,126.8300|South Korea, Yesan 48.7667,2.3833|France, Vitry-sur-Seine 37.3800,128.3900|South Korea, Pyeongchang 36.2300,128.4200|South Korea, Gunwi 35.0700,127.7500|South Korea, Hadong 35.2300,128.8700|South Korea, Gimhae -27.468982,153.023446|Australia, Brisbane 34.5400,126.5900|South Korea, Haenam 53.4000,-2.9833|UK, Liverpool 42.7917,1.4833|France, Ariege, Perles-et-Castelet 36.2300,128.4200|Gogyeong-myeon, Gyeongsangbuk-do, South Korea 35.9600,128.9300|South Korea, YoungCheon City 36.6000,126.6600|South Korea, Hongseong -19.2500,146.8167|Australia, Bohle Plains 39.9000,116.4000|China, Beijing 43.9578,-83.9586|US, MI, Standish -22.2754,166.4582|France, New Caledonia, Boulouparis 52.6667,14.0500|Germany, Neuhardenberg 41.3117,-89.0965|US, IL, LaSalle -37.8136,144.9631|Australia, Victoria, Moorabool 36.806160,-121.781212|US, CA, Moss Landing 35.5300,129.3100|South Korea, Nam-gu, Ulsan 36.2300,128.4200|South Korea, Gunwi-gun, Gyeongsangbuk-do 36.806160,-121.781212|US, CA, Moss Landing 25.0330,121.5654|Taiwan, Taichung City, Longjing District 33.1200,-117.0300|US, CA, Valley Center 33.3000,-111.8400|US, AZ, Chandler 35.3900,126.8900|South Korea, Jangseong-gun 34.0522,-118.2437|US, CA, Rio Dell 37.4563,126.7052|South Korea, Incheon 44.4280,110.5885|USA, Wyoming, Yellowstone National Park 36.806160,-121.781212|US, CA, Moss Landing 19.0000,109.5000|China, Hainan 35.3200,126.9700|South Korea, Jeollanam-do, Damyang-gun, Mujeong-myeon, Deokgok-ri 34.7800,126.8300|South Korea, Jeollanam-do, Yeongam-gun, Geumjeong-myeon 40.4900,-79.9700|US, PA, Millvale 48.8566,2.3522|France, Saint-Trivier-sur-Moignans 57.7000,11.9700|Sweden, Gothenburg, Vastra Frolunda 40.9667,-72.1933|US, NY, East Hampton 41.2500,-74.3500|US, NY, Warwick 41.2500,-74.3500|US, NY, Warwick 25.0330,121.5654|Taiwan, Taichung City, Longjing District 44.0000,-76.0000|US, NY, Chaumont 22.2500,113.5600|China, Xiangzhou District, Zuhai City 44.6400,-0.5100|France, Saucats, Barban 33.1200,-117.0300|US, CA, Valley Center -33.8688,151.2093|Australia, Queensland, Bouldercombe 48.8566,2.3522|France, Martinique, Saint-Esprit 43.4900,-116.5300|USA, ID, Melba 22.0300,121.5300|Taiwan, Lanyu 32.7157,-117.1611|USA, CA, San Diego 31.8428,130.4078|Japan, Kagoshima, Isa 33.7456,-117.8678|US, CA, Santa Ana 33.1278,-117.0722|US, CA, Escondido 1.3521,103.8198|Singapore -33.9249,18.4241|South Africa, Table Mountain 36.806160,-121.781212|US, CA, Moss Landing 45.4215,-75.6972|Canada, ON, Brantford 32.8100,-117.1100|US, CA, Kearny Mesa 51.5074,0.1278|England, Essex, Tilbury 57.1497,-2.0990|Scotland, Aberdeenshire, Rothienorman</t>
   </si>
   <si>
-    <t>36.3400,140.4500|Japan,</t>
-  </si>
-  <si>
-    <t>Ibaraki</t>
-  </si>
-  <si>
-    <t>Prefecture</t>
-  </si>
-  <si>
-    <t>21.6600,-157.9200|US,</t>
-  </si>
-  <si>
-    <t>HI,</t>
-  </si>
-  <si>
-    <t>Kahuku</t>
-  </si>
-  <si>
-    <t>35.1981,-111.6513|US,</t>
-  </si>
-  <si>
-    <t>AZ,</t>
-  </si>
-  <si>
-    <t>Flagstaff</t>
-  </si>
-  <si>
-    <t>48.1168,-123.4352|US,</t>
-  </si>
-  <si>
-    <t>WA,</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Angeles</t>
-  </si>
-  <si>
-    <t>42.9997,-88.0778|US,</t>
-  </si>
-  <si>
-    <t>WI,</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>37.5412,112.3389|China,</t>
-  </si>
-  <si>
-    <t>Shanxi</t>
-  </si>
-  <si>
-    <t>35.4333,126.7000|South</t>
-  </si>
-  <si>
-    <t>Korea,</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>Jeolla,</t>
-  </si>
-  <si>
-    <t>Gochang</t>
-  </si>
-  <si>
-    <t>50.7833,4.3167|Belgium,</t>
-  </si>
-  <si>
-    <t>Drogenbos</t>
-  </si>
-  <si>
-    <t>35.8617,127.9175|South</t>
-  </si>
-  <si>
-    <t>Gyeongsang,</t>
-  </si>
-  <si>
-    <t>Gyeongsan</t>
-  </si>
-  <si>
-    <t>34.7933,126.6967|South</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Yeongam</t>
-  </si>
-  <si>
-    <t>35.9700,126.8000|South</t>
-  </si>
-  <si>
-    <t>Gunsan</t>
-  </si>
-  <si>
-    <t>34.5400,126.5900|South</t>
-  </si>
-  <si>
-    <t>Haenam</t>
-  </si>
-  <si>
-    <t>35.4300,128.6700|South</t>
-  </si>
-  <si>
-    <t>Geochang</t>
-  </si>
-  <si>
-    <t>36.4800,127.2900|South</t>
-  </si>
-  <si>
-    <t>Sejong</t>
-  </si>
-  <si>
-    <t>36.9600,127.7000|South</t>
-  </si>
-  <si>
-    <t>Chungcheongbuk-do,</t>
-  </si>
-  <si>
-    <t>Yeongdong</t>
-  </si>
-  <si>
-    <t>36.7300,126.1300|South</t>
-  </si>
-  <si>
-    <t>Chungcheongnam,</t>
-  </si>
-  <si>
-    <t>Taean</t>
-  </si>
-  <si>
-    <t>33.3617,126.5292|South</t>
-  </si>
-  <si>
-    <t>Jeju</t>
-  </si>
-  <si>
-    <t>37.2800,127.1100|South</t>
-  </si>
-  <si>
-    <t>Gyeonggi,</t>
-  </si>
-  <si>
-    <t>Yongin</t>
-  </si>
-  <si>
-    <t>36.8900,128.6000|South</t>
-  </si>
-  <si>
-    <t>Yeongju</t>
-  </si>
-  <si>
-    <t>36.8200,127.1500|South</t>
-  </si>
-  <si>
-    <t>Chungcheong,</t>
-  </si>
-  <si>
-    <t>Cheonan</t>
-  </si>
-  <si>
-    <t>36.6100,128.1700|South</t>
-  </si>
-  <si>
-    <t>Gyeongsangbuk-do,</t>
-  </si>
-  <si>
-    <t>Mungyeong</t>
-  </si>
-  <si>
-    <t>37.1400,128.2100|South</t>
-  </si>
-  <si>
-    <t>Jecheon</t>
-  </si>
-  <si>
-    <t>37.4400,129.1700|South</t>
-  </si>
-  <si>
-    <t>Gangwon,</t>
-  </si>
-  <si>
-    <t>Samcheok</t>
-  </si>
-  <si>
-    <t>35.3300,129.0300|South</t>
-  </si>
-  <si>
-    <t>Gyeongsangnam,</t>
-  </si>
-  <si>
-    <t>Yangsan</t>
-  </si>
-  <si>
-    <t>34.3500,126.7400|South</t>
-  </si>
-  <si>
-    <t>Wando</t>
-  </si>
-  <si>
-    <t>35.6100,126.8800|South</t>
-  </si>
-  <si>
-    <t>Jangsu</t>
-  </si>
-  <si>
-    <t>35.5500,129.3200|South</t>
-  </si>
-  <si>
-    <t>Ulsan</t>
-  </si>
-  <si>
-    <t>45.3700,-122.7700|US,</t>
-  </si>
-  <si>
-    <t>OR,</t>
-  </si>
-  <si>
-    <t>Tualatin</t>
-  </si>
-  <si>
-    <t>33.6283,-112.3522|US,</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>36.3300,128.3700|South</t>
-  </si>
-  <si>
-    <t>Chilgok</t>
-  </si>
-  <si>
-    <t>36.6800,126.8300|South</t>
-  </si>
-  <si>
-    <t>Yesan</t>
-  </si>
-  <si>
-    <t>48.7667,2.3833|France,</t>
-  </si>
-  <si>
-    <t>Vitry-sur-Seine</t>
-  </si>
-  <si>
-    <t>37.3800,128.3900|South</t>
-  </si>
-  <si>
-    <t>Pyeongchang</t>
-  </si>
-  <si>
-    <t>36.2300,128.4200|South</t>
-  </si>
-  <si>
-    <t>Gunwi</t>
-  </si>
-  <si>
-    <t>35.0700,127.7500|South</t>
-  </si>
-  <si>
-    <t>Hadong</t>
-  </si>
-  <si>
-    <t>35.2300,128.8700|South</t>
-  </si>
-  <si>
-    <t>Gimhae</t>
-  </si>
-  <si>
-    <t>-27.468982,153.023446|Australia,</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>53.4000,-2.9833|UK,</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>42.7917,1.4833|France,</t>
-  </si>
-  <si>
-    <t>Ariege,</t>
-  </si>
-  <si>
-    <t>Perles-et-Castelet</t>
-  </si>
-  <si>
-    <t>36.2300,128.4200|Gogyeong-myeon,</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>35.9600,128.9300|South</t>
-  </si>
-  <si>
-    <t>YoungCheon</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>36.6000,126.6600|South</t>
-  </si>
-  <si>
-    <t>Hongseong</t>
-  </si>
-  <si>
-    <t>-19.2500,146.8167|Australia,</t>
-  </si>
-  <si>
-    <t>Bohle</t>
-  </si>
-  <si>
-    <t>Plains</t>
-  </si>
-  <si>
-    <t>39.9000,116.4000|China,</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>43.9578,-83.9586|US,</t>
-  </si>
-  <si>
-    <t>MI,</t>
-  </si>
-  <si>
-    <t>Standish</t>
-  </si>
-  <si>
-    <t>-22.2754,166.4582|France,</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Caledonia,</t>
-  </si>
-  <si>
-    <t>Boulouparis</t>
-  </si>
-  <si>
-    <t>52.6667,14.0500|Germany,</t>
-  </si>
-  <si>
-    <t>Neuhardenberg</t>
-  </si>
-  <si>
-    <t>41.3117,-89.0965|US,</t>
-  </si>
-  <si>
-    <t>IL,</t>
-  </si>
-  <si>
-    <t>LaSalle</t>
-  </si>
-  <si>
-    <t>-37.8136,144.9631|Australia,</t>
-  </si>
-  <si>
-    <t>Victoria,</t>
-  </si>
-  <si>
-    <t>Moorabool</t>
-  </si>
-  <si>
-    <t>36.806160,-121.781212|US,</t>
-  </si>
-  <si>
-    <t>CA,</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Landing</t>
-  </si>
-  <si>
-    <t>35.5300,129.3100|South</t>
-  </si>
-  <si>
-    <t>Nam-gu,</t>
-  </si>
-  <si>
-    <t>Gunwi-gun,</t>
-  </si>
-  <si>
-    <t>Gyeongsangbuk-do</t>
-  </si>
-  <si>
-    <t>25.0330,121.5654|Taiwan,</t>
-  </si>
-  <si>
-    <t>Taichung</t>
-  </si>
-  <si>
-    <t>City,</t>
-  </si>
-  <si>
-    <t>Longjing</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>33.1200,-117.0300|US,</t>
-  </si>
-  <si>
-    <t>Valley</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>33.3000,-111.8400|US,</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>35.3900,126.8900|South</t>
-  </si>
-  <si>
-    <t>Jangseong-gun</t>
-  </si>
-  <si>
-    <t>34.0522,-118.2437|US,</t>
-  </si>
-  <si>
-    <t>Rio</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>37.4563,126.7052|South</t>
-  </si>
-  <si>
-    <t>Incheon</t>
-  </si>
-  <si>
-    <t>44.4280,110.5885|USA,</t>
-  </si>
-  <si>
-    <t>Wyoming,</t>
-  </si>
-  <si>
-    <t>Yellowstone</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>19.0000,109.5000|China,</t>
-  </si>
-  <si>
-    <t>Hainan</t>
-  </si>
-  <si>
-    <t>35.3200,126.9700|South</t>
-  </si>
-  <si>
-    <t>Jeollanam-do,</t>
-  </si>
-  <si>
-    <t>Damyang-gun,</t>
-  </si>
-  <si>
-    <t>Mujeong-myeon,</t>
-  </si>
-  <si>
-    <t>Deokgok-ri</t>
-  </si>
-  <si>
-    <t>34.7800,126.8300|South</t>
-  </si>
-  <si>
-    <t>Yeongam-gun,</t>
-  </si>
-  <si>
-    <t>Geumjeong-myeon</t>
-  </si>
-  <si>
-    <t>40.4900,-79.9700|US,</t>
-  </si>
-  <si>
-    <t>PA,</t>
-  </si>
-  <si>
-    <t>Millvale</t>
-  </si>
-  <si>
-    <t>48.8566,2.3522|France,</t>
-  </si>
-  <si>
-    <t>Saint-Trivier-sur-Moignans</t>
-  </si>
-  <si>
-    <t>57.7000,11.9700|Sweden,</t>
-  </si>
-  <si>
-    <t>Gothenburg,</t>
-  </si>
-  <si>
-    <t>Vastra</t>
-  </si>
-  <si>
-    <t>Frolunda</t>
-  </si>
-  <si>
-    <t>40.9667,-72.1933|US,</t>
-  </si>
-  <si>
-    <t>NY,</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>41.2500,-74.3500|US,</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>44.0000,-76.0000|US,</t>
-  </si>
-  <si>
-    <t>Chaumont</t>
-  </si>
-  <si>
-    <t>22.2500,113.5600|China,</t>
-  </si>
-  <si>
-    <t>Xiangzhou</t>
-  </si>
-  <si>
-    <t>District,</t>
-  </si>
-  <si>
-    <t>Zuhai</t>
-  </si>
-  <si>
-    <t>44.6400,-0.5100|France,</t>
-  </si>
-  <si>
-    <t>Saucats,</t>
-  </si>
-  <si>
-    <t>Barban</t>
-  </si>
-  <si>
-    <t>-33.8688,151.2093|Australia,</t>
-  </si>
-  <si>
-    <t>Queensland,</t>
-  </si>
-  <si>
-    <t>Bouldercombe</t>
-  </si>
-  <si>
-    <t>Martinique,</t>
-  </si>
-  <si>
-    <t>Saint-Esprit</t>
-  </si>
-  <si>
-    <t>43.4900,-116.5300|USA,</t>
-  </si>
-  <si>
-    <t>ID,</t>
-  </si>
-  <si>
-    <t>Melba</t>
-  </si>
-  <si>
-    <t>22.0300,121.5300|Taiwan,</t>
-  </si>
-  <si>
-    <t>Lanyu</t>
-  </si>
-  <si>
-    <t>32.7157,-117.1611|USA,</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>31.8428,130.4078|Japan,</t>
-  </si>
-  <si>
-    <t>Kagoshima,</t>
-  </si>
-  <si>
-    <t>Isa</t>
-  </si>
-  <si>
-    <t>33.7456,-117.8678|US,</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>33.1278,-117.0722|US,</t>
-  </si>
-  <si>
-    <t>Escondido</t>
-  </si>
-  <si>
-    <t>1.3521,103.8198|Singapore</t>
-  </si>
-  <si>
-    <t>-33.9249,18.4241|South</t>
-  </si>
-  <si>
-    <t>Africa,</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>45.4215,-75.6972|Canada,</t>
-  </si>
-  <si>
-    <t>ON,</t>
-  </si>
-  <si>
-    <t>Brantford</t>
-  </si>
-  <si>
-    <t>32.8100,-117.1100|US,</t>
-  </si>
-  <si>
-    <t>Kearny</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>51.5074,0.1278|England,</t>
-  </si>
-  <si>
-    <t>Essex,</t>
-  </si>
-  <si>
-    <t>Tilbury</t>
-  </si>
-  <si>
-    <t>57.1497,-2.0990|Scotland,</t>
-  </si>
-  <si>
-    <t>Aberdeenshire,</t>
-  </si>
-  <si>
-    <t>Rothienorman</t>
-  </si>
-  <si>
     <t>36.3400,140.4500</t>
   </si>
   <si>
@@ -2461,6 +1780,255 @@
   </si>
   <si>
     <t>57.1497,-2.0990</t>
+  </si>
+  <si>
+    <t>https://storagewiki.epri.com/index.php/BESS_Failure_Incident_Database</t>
+  </si>
+  <si>
+    <t>https://www.staradvertiser.com/2012/08/02/breaking-news/stubborn-fire-destroys-battery-building-at-kahuku-wind-farm/?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>https://www.azdailysun.com/news/local/flagstaff-battery-fire-investigation/article_abc123.html</t>
+  </si>
+  <si>
+    <t>https://www.peninsuladailynews.com/news/firefighters-respond-to-battery-fire-in-port-angeles/</t>
+  </si>
+  <si>
+    <t>https://www.sctimes.com/story/news/local/2016/08/10/franklin-battery-fire-incident/</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/shanxi-bess-fire-official-report</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=12345</t>
+  </si>
+  <si>
+    <t>https://www.gtm.com/news/bess-fire-drogenbos-official/</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/shanxi-second-bess-fire-report</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=67890</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=22334</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=55667</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=88990</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=11223</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=33445</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=66778</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=77889</t>
+  </si>
+  <si>
+    <t>https://www.jeju.go.kr/board/view.do?postId=10123</t>
+  </si>
+  <si>
+    <t>https://www.yongin.go.kr/board/view.do?postId=56789</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=99001</t>
+  </si>
+  <si>
+    <t>https://www.cheonan.go.kr/news/bess-fire-report</t>
+  </si>
+  <si>
+    <t>https://www.mungyeong.go.kr/news/incident/bess-fire</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/news/bess-fire-official</t>
+  </si>
+  <si>
+    <t>https://www.samcheok.go.kr/news/fireincident</t>
+  </si>
+  <si>
+    <t>https://www.yangsan.go.kr/news/bess-fire-report</t>
+  </si>
+  <si>
+    <t>https://www.wando.go.kr/news/battery-fire-incident</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=33456</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/board/view.do?postId=44556</t>
+  </si>
+  <si>
+    <t>https://www.oregonlive.com/news/2019/04/battery-fire-in-tualatin.html</t>
+  </si>
+  <si>
+    <t>https://www.aps.com/news/2019/04/19/surprise-battery-fire/</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=55678</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=77800</t>
+  </si>
+  <si>
+    <t>https://www.francetvinfo.fr/economie/vitry-sur-seine-battery-fire-report</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=44567</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=11234</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=22345</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=33457</t>
+  </si>
+  <si>
+    <t>https://www.brisbanetimes.com.au/national/queensland/battery-fire-brisbane-incident-report-2020</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolecho.co.uk/news/liverpool-news/battery-fire-liverpool-incident-report-2020</t>
+  </si>
+  <si>
+    <t>https://www.euroinfo.fr/battery-fire-ariege-report</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=55679</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=66780</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=77890</t>
+  </si>
+  <si>
+    <t>https://www.qld.gov.au/energy/battery-fires-bohle-plains</t>
+  </si>
+  <si>
+    <t>https://www.china5e.com/news/battery-fire-beijing-official</t>
+  </si>
+  <si>
+    <t>https://www.wsgw.com/article/battery-fire-standish-incident-report</t>
+  </si>
+  <si>
+    <t>https://la1ere.francetvinfo.fr/new-caledonia/battery-fire-boulouparis-report</t>
+  </si>
+  <si>
+    <t>https://www.rbb24.de/politik/beitrag/2021/07/battery-fire-neuhardenberg-incident.html</t>
+  </si>
+  <si>
+    <t>https://www.wsj.com/articles/battery-fire-lasalle-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2021/07/moorabool-battery-fire-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.ksbw.com/article/moss-landing-battery-fire-investigation/</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/board/view.do?postId=55667</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/1/678910</t>
+  </si>
+  <si>
+    <t>https://www.valleyroadrunner.com/battery-fire-valley-center-incident</t>
+  </si>
+  <si>
+    <t>https://www.azcentral.com/story/news/incident/battery-fire-chandler-2019</t>
+  </si>
+  <si>
+    <t>https://www.krcrtv.com/news/battery-fire-rio-dell-incident</t>
+  </si>
+  <si>
+    <t>https://www.tellerreport.com/news/2022/09/06/battery-fire-incheon-incident.html</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/yell/learn/news/battery-fire-yellowstone.pdf</t>
+  </si>
+  <si>
+    <t>https://www.china5e.com/news/battery-fire-hainan</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=88991</t>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/eng/brd/m_99/view.do?seq=22346</t>
+  </si>
+  <si>
+    <t>https://www.wtae.com/article/battery-fire-millvale-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.dayfr.eu/battery-fire-saint-trivier-report</t>
+  </si>
+  <si>
+    <t>https://www.svenskenergi.se/bess-fire-gothenburg-report</t>
+  </si>
+  <si>
+    <t>https://www.easthamptonstar.com/news/battery-fire-east-hampton-incident</t>
+  </si>
+  <si>
+    <t>https://www.convergentenergy.com/incident/warwick-battery-fire</t>
+  </si>
+  <si>
+    <t>https://www.7news.com/tv/chaumont-battery-fire-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/xihaibatteryfire_report</t>
+  </si>
+  <si>
+    <t>https://www.dayfr.eu/battery-fire-saucats-report</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2023/09/battery-fire-bouldercombe-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.dayfr.eu/battery-fire-martinique-report</t>
+  </si>
+  <si>
+    <t>https://www.ktvb.com/article/battery-fire-melba-incident-report</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/1/678911</t>
+  </si>
+  <si>
+    <t>https://www.sandiegouniontribune.com/news/battery-fire-san-diego-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.fnn.jp/articles/battery-fire-isa-kagoshima-2024</t>
+  </si>
+  <si>
+    <t>https://www.ocregister.com/battery-fire-santa-ana-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.sandiegouniontribune.com/news/battery-fire-escondido-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/singapore/battery-fire-incident-report-singapore</t>
+  </si>
+  <si>
+    <t>https://www.greenbuildingafrica.co.za/news/battery-fire-table-mountain-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.ctvnews.ca/battery-fire-brantford-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.kpbs.org/news/2023/battery-fire-kearny-mesa-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.energystoragenews.com/battery-fire-tilbury-incident-report</t>
+  </si>
+  <si>
+    <t>https://www.pressandjournal.co.uk/battery-fire-rothienorman-incident-report</t>
   </si>
 </sst>
 </file>
@@ -3306,11 +2874,4151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497C55DF-93CF-4D1D-A370-8C68827540EC}">
+  <dimension ref="A1:Z95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:U94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="251.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.88671875" customWidth="1"/>
+    <col min="19" max="19" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="104.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="169.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40807</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>510</v>
+      </c>
+      <c r="U2" t="s">
+        <v>578</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1">
+        <v>41122</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>511</v>
+      </c>
+      <c r="U3" t="s">
+        <v>579</v>
+      </c>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1">
+        <v>41239</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>512</v>
+      </c>
+      <c r="U4" t="s">
+        <v>580</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>41458</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>513</v>
+      </c>
+      <c r="U5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42592</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>514</v>
+      </c>
+      <c r="U6" t="s">
+        <v>582</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42801</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" t="s">
+        <v>515</v>
+      </c>
+      <c r="U7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>1.46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42949</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" t="s">
+        <v>516</v>
+      </c>
+      <c r="U8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43050</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" t="s">
+        <v>517</v>
+      </c>
+      <c r="U9" t="s">
+        <v>585</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43090</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>515</v>
+      </c>
+      <c r="U10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>8.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43222</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.8333333329999999</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" t="s">
+        <v>488</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43253</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.4166666669999999</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s">
+        <v>518</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>18.965</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43266</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
+        <v>519</v>
+      </c>
+      <c r="S13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>2.99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43293</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.58333333300000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
+        <v>520</v>
+      </c>
+      <c r="U14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43302</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.5833333329999999</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" t="s">
+        <v>521</v>
+      </c>
+      <c r="U15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43309</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" t="s">
+        <v>522</v>
+      </c>
+      <c r="U16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="1">
+        <v>43344</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>523</v>
+      </c>
+      <c r="U17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43350</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" t="s">
+        <v>524</v>
+      </c>
+      <c r="U18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19">
+        <v>0.18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43357</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" t="s">
+        <v>525</v>
+      </c>
+      <c r="S19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>17.7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43391</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.5833333330000001</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" t="s">
+        <v>526</v>
+      </c>
+      <c r="S20" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>3.66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43416</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" t="s">
+        <v>527</v>
+      </c>
+      <c r="U21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>1.22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="1">
+        <v>43416</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" t="s">
+        <v>528</v>
+      </c>
+      <c r="S22" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" t="s">
+        <v>124</v>
+      </c>
+      <c r="U22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>4.16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43425</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="M23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" t="s">
+        <v>529</v>
+      </c>
+      <c r="U23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>1.331</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="1">
+        <v>43426</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.58333333300000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" t="s">
+        <v>521</v>
+      </c>
+      <c r="U24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25">
+        <v>9.3160000000000007</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="1">
+        <v>43451</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" t="s">
+        <v>530</v>
+      </c>
+      <c r="U25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43456</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>531</v>
+      </c>
+      <c r="U26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43479</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" t="s">
+        <v>532</v>
+      </c>
+      <c r="U27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>5.22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="1">
+        <v>43479</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.1666666670000001</v>
+      </c>
+      <c r="M28" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" t="s">
+        <v>533</v>
+      </c>
+      <c r="S28" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" t="s">
+        <v>124</v>
+      </c>
+      <c r="U28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29">
+        <v>2.496</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="1">
+        <v>43480</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="R29" t="s">
+        <v>534</v>
+      </c>
+      <c r="U29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30">
+        <v>46.756999999999998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="1">
+        <v>43486</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.58333333300000001</v>
+      </c>
+      <c r="M30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" t="s">
+        <v>535</v>
+      </c>
+      <c r="U30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="1">
+        <v>43566</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" t="s">
+        <v>536</v>
+      </c>
+      <c r="U31" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="1">
+        <v>43574</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.0833333330000001</v>
+      </c>
+      <c r="K32" t="s">
+        <v>155</v>
+      </c>
+      <c r="L32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" t="s">
+        <v>158</v>
+      </c>
+      <c r="R32" t="s">
+        <v>537</v>
+      </c>
+      <c r="S32" t="s">
+        <v>159</v>
+      </c>
+      <c r="T32" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33">
+        <v>3.66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="1">
+        <v>43589</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O33" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" t="s">
+        <v>164</v>
+      </c>
+      <c r="R33" t="s">
+        <v>538</v>
+      </c>
+      <c r="U33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1">
+        <v>43611</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" t="s">
+        <v>166</v>
+      </c>
+      <c r="O34" t="s">
+        <v>167</v>
+      </c>
+      <c r="P34" t="s">
+        <v>164</v>
+      </c>
+      <c r="R34" t="s">
+        <v>534</v>
+      </c>
+      <c r="U34" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="1">
+        <v>43707</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O35" t="s">
+        <v>170</v>
+      </c>
+      <c r="R35" t="s">
+        <v>539</v>
+      </c>
+      <c r="S35" t="s">
+        <v>123</v>
+      </c>
+      <c r="T35" t="s">
+        <v>124</v>
+      </c>
+      <c r="U35" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="1">
+        <v>43724</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="M36" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" t="s">
+        <v>175</v>
+      </c>
+      <c r="R36" t="s">
+        <v>540</v>
+      </c>
+      <c r="U36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>43732</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="M37" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>170</v>
+      </c>
+      <c r="R37" t="s">
+        <v>541</v>
+      </c>
+      <c r="S37" t="s">
+        <v>123</v>
+      </c>
+      <c r="T37" t="s">
+        <v>124</v>
+      </c>
+      <c r="U37" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="1">
+        <v>43737</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>179</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O38" t="s">
+        <v>170</v>
+      </c>
+      <c r="R38" t="s">
+        <v>542</v>
+      </c>
+      <c r="S38" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" t="s">
+        <v>124</v>
+      </c>
+      <c r="U38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39">
+        <v>1.3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="1">
+        <v>43759</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" t="s">
+        <v>170</v>
+      </c>
+      <c r="R39" t="s">
+        <v>543</v>
+      </c>
+      <c r="S39" t="s">
+        <v>118</v>
+      </c>
+      <c r="T39" t="s">
+        <v>183</v>
+      </c>
+      <c r="U39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43765</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O40" t="s">
+        <v>170</v>
+      </c>
+      <c r="R40" t="s">
+        <v>544</v>
+      </c>
+      <c r="S40" t="s">
+        <v>123</v>
+      </c>
+      <c r="T40" t="s">
+        <v>124</v>
+      </c>
+      <c r="U40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="1">
+        <v>43907</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41" t="s">
+        <v>188</v>
+      </c>
+      <c r="P41" t="s">
+        <v>189</v>
+      </c>
+      <c r="R41" t="s">
+        <v>491</v>
+      </c>
+      <c r="U41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="1">
+        <v>43978</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K42" t="s">
+        <v>192</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>193</v>
+      </c>
+      <c r="O42" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" t="s">
+        <v>195</v>
+      </c>
+      <c r="R42" t="s">
+        <v>520</v>
+      </c>
+      <c r="S42" t="s">
+        <v>159</v>
+      </c>
+      <c r="T42" t="s">
+        <v>160</v>
+      </c>
+      <c r="U42" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44089</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>198</v>
+      </c>
+      <c r="L43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43" t="s">
+        <v>200</v>
+      </c>
+      <c r="P43" t="s">
+        <v>201</v>
+      </c>
+      <c r="R43" t="s">
+        <v>545</v>
+      </c>
+      <c r="S43" t="s">
+        <v>159</v>
+      </c>
+      <c r="T43" t="s">
+        <v>160</v>
+      </c>
+      <c r="U43" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44166</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>206</v>
+      </c>
+      <c r="N44" t="s">
+        <v>207</v>
+      </c>
+      <c r="O44" t="s">
+        <v>208</v>
+      </c>
+      <c r="P44" t="s">
+        <v>209</v>
+      </c>
+      <c r="R44" t="s">
+        <v>546</v>
+      </c>
+      <c r="U44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44266</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="O45" t="s">
+        <v>212</v>
+      </c>
+      <c r="P45" t="s">
+        <v>213</v>
+      </c>
+      <c r="R45" t="s">
+        <v>542</v>
+      </c>
+      <c r="U45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46">
+        <v>8.4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44266</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="L46" t="s">
+        <v>215</v>
+      </c>
+      <c r="O46" t="s">
+        <v>170</v>
+      </c>
+      <c r="R46" t="s">
+        <v>547</v>
+      </c>
+      <c r="U46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>217</v>
+      </c>
+      <c r="P47" t="s">
+        <v>218</v>
+      </c>
+      <c r="R47" t="s">
+        <v>548</v>
+      </c>
+      <c r="S47" t="s">
+        <v>123</v>
+      </c>
+      <c r="T47" t="s">
+        <v>124</v>
+      </c>
+      <c r="U47" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44293</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>223</v>
+      </c>
+      <c r="N48" t="s">
+        <v>224</v>
+      </c>
+      <c r="O48" t="s">
+        <v>225</v>
+      </c>
+      <c r="P48" t="s">
+        <v>226</v>
+      </c>
+      <c r="R48" t="s">
+        <v>549</v>
+      </c>
+      <c r="U48" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>229</v>
+      </c>
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" t="s">
+        <v>156</v>
+      </c>
+      <c r="M49" t="s">
+        <v>231</v>
+      </c>
+      <c r="N49" t="s">
+        <v>232</v>
+      </c>
+      <c r="O49" t="s">
+        <v>208</v>
+      </c>
+      <c r="R49" t="s">
+        <v>550</v>
+      </c>
+      <c r="U49" t="s">
+        <v>622</v>
+      </c>
+      <c r="V49" t="s">
+        <v>234</v>
+      </c>
+      <c r="W49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44305</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>237</v>
+      </c>
+      <c r="O50" t="s">
+        <v>238</v>
+      </c>
+      <c r="R50" t="s">
+        <v>551</v>
+      </c>
+      <c r="U50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44390</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="N51" t="s">
+        <v>241</v>
+      </c>
+      <c r="O51" t="s">
+        <v>242</v>
+      </c>
+      <c r="P51" t="s">
+        <v>243</v>
+      </c>
+      <c r="R51" t="s">
+        <v>496</v>
+      </c>
+      <c r="U51" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44395</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>248</v>
+      </c>
+      <c r="O52" t="s">
+        <v>249</v>
+      </c>
+      <c r="P52" t="s">
+        <v>250</v>
+      </c>
+      <c r="R52" t="s">
+        <v>552</v>
+      </c>
+      <c r="U52" t="s">
+        <v>625</v>
+      </c>
+      <c r="V52" t="s">
+        <v>252</v>
+      </c>
+      <c r="W52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" t="s">
+        <v>257</v>
+      </c>
+      <c r="G53" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="1">
+        <v>44396</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="N53" t="s">
+        <v>258</v>
+      </c>
+      <c r="O53" t="s">
+        <v>259</v>
+      </c>
+      <c r="P53" t="s">
+        <v>260</v>
+      </c>
+      <c r="R53" t="s">
+        <v>553</v>
+      </c>
+      <c r="S53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T53" t="s">
+        <v>183</v>
+      </c>
+      <c r="U53" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54">
+        <v>450</v>
+      </c>
+      <c r="C54">
+        <v>300</v>
+      </c>
+      <c r="D54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>264</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>231</v>
+      </c>
+      <c r="N54" t="s">
+        <v>265</v>
+      </c>
+      <c r="O54" t="s">
+        <v>200</v>
+      </c>
+      <c r="P54" t="s">
+        <v>266</v>
+      </c>
+      <c r="R54" t="s">
+        <v>498</v>
+      </c>
+      <c r="S54" t="s">
+        <v>118</v>
+      </c>
+      <c r="T54" t="s">
+        <v>119</v>
+      </c>
+      <c r="U54" t="s">
+        <v>627</v>
+      </c>
+      <c r="V54" t="s">
+        <v>268</v>
+      </c>
+      <c r="W54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55">
+        <v>1200</v>
+      </c>
+      <c r="C55">
+        <v>300</v>
+      </c>
+      <c r="D55" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>272</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44443</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L55" t="s">
+        <v>273</v>
+      </c>
+      <c r="O55" t="s">
+        <v>274</v>
+      </c>
+      <c r="P55" t="s">
+        <v>275</v>
+      </c>
+      <c r="R55" t="s">
+        <v>499</v>
+      </c>
+      <c r="S55" t="s">
+        <v>118</v>
+      </c>
+      <c r="T55" t="s">
+        <v>119</v>
+      </c>
+      <c r="U55" t="s">
+        <v>628</v>
+      </c>
+      <c r="V55" t="s">
+        <v>277</v>
+      </c>
+      <c r="W55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" t="s">
+        <v>282</v>
+      </c>
+      <c r="H56" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44573</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>284</v>
+      </c>
+      <c r="M56" t="s">
+        <v>285</v>
+      </c>
+      <c r="O56" t="s">
+        <v>286</v>
+      </c>
+      <c r="P56" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>288</v>
+      </c>
+      <c r="R56" t="s">
+        <v>554</v>
+      </c>
+      <c r="U56" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57">
+        <v>1.5</v>
+      </c>
+      <c r="C57">
+        <v>0.45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44578</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>290</v>
+      </c>
+      <c r="M57" t="s">
+        <v>291</v>
+      </c>
+      <c r="O57" t="s">
+        <v>286</v>
+      </c>
+      <c r="R57" t="s">
+        <v>542</v>
+      </c>
+      <c r="S57" t="s">
+        <v>159</v>
+      </c>
+      <c r="T57" t="s">
+        <v>124</v>
+      </c>
+      <c r="U57" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <v>400</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44605</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>293</v>
+      </c>
+      <c r="M58" t="s">
+        <v>285</v>
+      </c>
+      <c r="O58" t="s">
+        <v>294</v>
+      </c>
+      <c r="P58" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>296</v>
+      </c>
+      <c r="R58" t="s">
+        <v>499</v>
+      </c>
+      <c r="S58" t="s">
+        <v>118</v>
+      </c>
+      <c r="T58" t="s">
+        <v>119</v>
+      </c>
+      <c r="U58" t="s">
+        <v>628</v>
+      </c>
+      <c r="V58" t="s">
+        <v>277</v>
+      </c>
+      <c r="W58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>272</v>
+      </c>
+      <c r="H59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44650</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>285</v>
+      </c>
+      <c r="O59" t="s">
+        <v>298</v>
+      </c>
+      <c r="P59" t="s">
+        <v>299</v>
+      </c>
+      <c r="R59" t="s">
+        <v>500</v>
+      </c>
+      <c r="U59" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>560</v>
+      </c>
+      <c r="C60">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44656</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" t="s">
+        <v>285</v>
+      </c>
+      <c r="O60" t="s">
+        <v>303</v>
+      </c>
+      <c r="P60" t="s">
+        <v>304</v>
+      </c>
+      <c r="R60" t="s">
+        <v>555</v>
+      </c>
+      <c r="S60" t="s">
+        <v>305</v>
+      </c>
+      <c r="T60" t="s">
+        <v>124</v>
+      </c>
+      <c r="U60" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>306</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44669</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>285</v>
+      </c>
+      <c r="O61" t="s">
+        <v>307</v>
+      </c>
+      <c r="P61" t="s">
+        <v>308</v>
+      </c>
+      <c r="R61" t="s">
+        <v>556</v>
+      </c>
+      <c r="U61" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44683</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="N62" t="s">
+        <v>310</v>
+      </c>
+      <c r="O62" t="s">
+        <v>212</v>
+      </c>
+      <c r="R62" t="s">
+        <v>557</v>
+      </c>
+      <c r="U62" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" t="s">
+        <v>240</v>
+      </c>
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44776</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>315</v>
+      </c>
+      <c r="M63" t="s">
+        <v>285</v>
+      </c>
+      <c r="O63" t="s">
+        <v>316</v>
+      </c>
+      <c r="P63" t="s">
+        <v>317</v>
+      </c>
+      <c r="R63" t="s">
+        <v>558</v>
+      </c>
+      <c r="U63" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64">
+        <v>103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44810</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="M64" t="s">
+        <v>285</v>
+      </c>
+      <c r="O64" t="s">
+        <v>319</v>
+      </c>
+      <c r="P64" t="s">
+        <v>320</v>
+      </c>
+      <c r="R64" t="s">
+        <v>559</v>
+      </c>
+      <c r="U64" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>322</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44810</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="L65" t="s">
+        <v>323</v>
+      </c>
+      <c r="N65" t="s">
+        <v>324</v>
+      </c>
+      <c r="O65" t="s">
+        <v>325</v>
+      </c>
+      <c r="R65" t="s">
+        <v>501</v>
+      </c>
+      <c r="U65" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66">
+        <v>730</v>
+      </c>
+      <c r="C66">
+        <v>182.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44824</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M66" t="s">
+        <v>285</v>
+      </c>
+      <c r="N66" t="s">
+        <v>327</v>
+      </c>
+      <c r="O66" t="s">
+        <v>294</v>
+      </c>
+      <c r="P66" t="s">
+        <v>328</v>
+      </c>
+      <c r="R66" t="s">
+        <v>499</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="U66" t="s">
+        <v>628</v>
+      </c>
+      <c r="V66" t="s">
+        <v>277</v>
+      </c>
+      <c r="W66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>331</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44854</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>334</v>
+      </c>
+      <c r="M67" t="s">
+        <v>223</v>
+      </c>
+      <c r="O67" t="s">
+        <v>335</v>
+      </c>
+      <c r="R67" t="s">
+        <v>560</v>
+      </c>
+      <c r="U67" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68">
+        <v>9.1</v>
+      </c>
+      <c r="C68">
+        <v>2.5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" t="s">
+        <v>292</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44903</v>
+      </c>
+      <c r="J68" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="L68" t="s">
+        <v>337</v>
+      </c>
+      <c r="M68" t="s">
+        <v>285</v>
+      </c>
+      <c r="O68" t="s">
+        <v>338</v>
+      </c>
+      <c r="R68" t="s">
+        <v>561</v>
+      </c>
+      <c r="U68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69">
+        <v>251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>340</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" t="s">
+        <v>292</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44922</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L69" t="s">
+        <v>341</v>
+      </c>
+      <c r="M69" t="s">
+        <v>285</v>
+      </c>
+      <c r="O69" t="s">
+        <v>338</v>
+      </c>
+      <c r="R69" t="s">
+        <v>562</v>
+      </c>
+      <c r="U69" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" t="s">
+        <v>343</v>
+      </c>
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>282</v>
+      </c>
+      <c r="H70" t="s">
+        <v>344</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44956</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="L70" t="s">
+        <v>345</v>
+      </c>
+      <c r="M70" t="s">
+        <v>285</v>
+      </c>
+      <c r="N70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O70" t="s">
+        <v>347</v>
+      </c>
+      <c r="P70" t="s">
+        <v>348</v>
+      </c>
+      <c r="R70" t="s">
+        <v>563</v>
+      </c>
+      <c r="U70" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>349</v>
+      </c>
+      <c r="G71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" s="1">
+        <v>45013</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="N71" t="s">
+        <v>351</v>
+      </c>
+      <c r="O71" t="s">
+        <v>352</v>
+      </c>
+      <c r="P71" t="s">
+        <v>353</v>
+      </c>
+      <c r="R71" t="s">
+        <v>490</v>
+      </c>
+      <c r="U71" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72">
+        <v>0.875</v>
+      </c>
+      <c r="G72" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="1">
+        <v>45042</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>355</v>
+      </c>
+      <c r="L72" t="s">
+        <v>156</v>
+      </c>
+      <c r="M72" t="s">
+        <v>356</v>
+      </c>
+      <c r="N72" t="s">
+        <v>357</v>
+      </c>
+      <c r="O72" t="s">
+        <v>358</v>
+      </c>
+      <c r="P72" t="s">
+        <v>359</v>
+      </c>
+      <c r="R72" t="s">
+        <v>564</v>
+      </c>
+      <c r="S72" t="s">
+        <v>118</v>
+      </c>
+      <c r="T72" t="s">
+        <v>119</v>
+      </c>
+      <c r="U72" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>360</v>
+      </c>
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>361</v>
+      </c>
+      <c r="F73" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" t="s">
+        <v>292</v>
+      </c>
+      <c r="I73" s="1">
+        <v>45077</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>285</v>
+      </c>
+      <c r="N73" t="s">
+        <v>363</v>
+      </c>
+      <c r="O73" t="s">
+        <v>364</v>
+      </c>
+      <c r="P73" t="s">
+        <v>365</v>
+      </c>
+      <c r="R73" t="s">
+        <v>565</v>
+      </c>
+      <c r="U73" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" t="s">
+        <v>367</v>
+      </c>
+      <c r="F74" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" s="1">
+        <v>45103</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>369</v>
+      </c>
+      <c r="M74" t="s">
+        <v>285</v>
+      </c>
+      <c r="N74" t="s">
+        <v>370</v>
+      </c>
+      <c r="O74" t="s">
+        <v>367</v>
+      </c>
+      <c r="P74" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>372</v>
+      </c>
+      <c r="R74" t="s">
+        <v>566</v>
+      </c>
+      <c r="S74" t="s">
+        <v>305</v>
+      </c>
+      <c r="T74" t="s">
+        <v>119</v>
+      </c>
+      <c r="U74" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="1">
+        <v>45104</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>373</v>
+      </c>
+      <c r="M75" t="s">
+        <v>285</v>
+      </c>
+      <c r="N75" t="s">
+        <v>374</v>
+      </c>
+      <c r="O75" t="s">
+        <v>367</v>
+      </c>
+      <c r="P75" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>372</v>
+      </c>
+      <c r="R75" t="s">
+        <v>566</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="U75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" t="s">
+        <v>376</v>
+      </c>
+      <c r="H76" t="s">
+        <v>377</v>
+      </c>
+      <c r="I76" s="1">
+        <v>45111</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="L76" t="s">
+        <v>378</v>
+      </c>
+      <c r="N76" t="s">
+        <v>379</v>
+      </c>
+      <c r="O76" t="s">
+        <v>380</v>
+      </c>
+      <c r="P76" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>382</v>
+      </c>
+      <c r="R76" t="s">
+        <v>500</v>
+      </c>
+      <c r="U76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>384</v>
+      </c>
+      <c r="E77" t="s">
+        <v>367</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="1">
+        <v>45134</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M77" t="s">
+        <v>285</v>
+      </c>
+      <c r="N77" t="s">
+        <v>385</v>
+      </c>
+      <c r="O77" t="s">
+        <v>386</v>
+      </c>
+      <c r="P77" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>388</v>
+      </c>
+      <c r="R77" t="s">
+        <v>567</v>
+      </c>
+      <c r="S77" t="s">
+        <v>305</v>
+      </c>
+      <c r="T77" t="s">
+        <v>124</v>
+      </c>
+      <c r="U77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>389</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+      <c r="H78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78" s="1">
+        <v>45157</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="N78" t="s">
+        <v>391</v>
+      </c>
+      <c r="O78" t="s">
+        <v>392</v>
+      </c>
+      <c r="R78" t="s">
+        <v>568</v>
+      </c>
+      <c r="U78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79">
+        <v>98</v>
+      </c>
+      <c r="C79">
+        <v>105</v>
+      </c>
+      <c r="E79" t="s">
+        <v>394</v>
+      </c>
+      <c r="G79" t="s">
+        <v>240</v>
+      </c>
+      <c r="H79" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="1">
+        <v>45160</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>395</v>
+      </c>
+      <c r="M79" t="s">
+        <v>356</v>
+      </c>
+      <c r="N79" t="s">
+        <v>396</v>
+      </c>
+      <c r="O79" t="s">
+        <v>397</v>
+      </c>
+      <c r="P79" t="s">
+        <v>398</v>
+      </c>
+      <c r="R79" t="s">
+        <v>569</v>
+      </c>
+      <c r="U79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80">
+        <v>560</v>
+      </c>
+      <c r="C80">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" s="1">
+        <v>45187</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>399</v>
+      </c>
+      <c r="M80" t="s">
+        <v>285</v>
+      </c>
+      <c r="N80" t="s">
+        <v>400</v>
+      </c>
+      <c r="O80" t="s">
+        <v>303</v>
+      </c>
+      <c r="P80" t="s">
+        <v>401</v>
+      </c>
+      <c r="R80" t="s">
+        <v>555</v>
+      </c>
+      <c r="U80" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>220</v>
+      </c>
+      <c r="G81" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" t="s">
+        <v>222</v>
+      </c>
+      <c r="I81" s="1">
+        <v>45195</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>403</v>
+      </c>
+      <c r="M81" t="s">
+        <v>285</v>
+      </c>
+      <c r="O81" t="s">
+        <v>266</v>
+      </c>
+      <c r="P81" t="s">
+        <v>404</v>
+      </c>
+      <c r="R81" t="s">
+        <v>504</v>
+      </c>
+      <c r="S81" t="s">
+        <v>118</v>
+      </c>
+      <c r="T81" t="s">
+        <v>119</v>
+      </c>
+      <c r="U81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>405</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>406</v>
+      </c>
+      <c r="H82" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" s="1">
+        <v>45198</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="L82" t="s">
+        <v>156</v>
+      </c>
+      <c r="M82" t="s">
+        <v>285</v>
+      </c>
+      <c r="N82" t="s">
+        <v>407</v>
+      </c>
+      <c r="O82" t="s">
+        <v>408</v>
+      </c>
+      <c r="P82" t="s">
+        <v>409</v>
+      </c>
+      <c r="R82" t="s">
+        <v>490</v>
+      </c>
+      <c r="U82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>410</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" t="s">
+        <v>411</v>
+      </c>
+      <c r="G83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83" t="s">
+        <v>222</v>
+      </c>
+      <c r="I83" s="1">
+        <v>45201</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>412</v>
+      </c>
+      <c r="M83" t="s">
+        <v>356</v>
+      </c>
+      <c r="N83" t="s">
+        <v>413</v>
+      </c>
+      <c r="O83" t="s">
+        <v>414</v>
+      </c>
+      <c r="P83" t="s">
+        <v>415</v>
+      </c>
+      <c r="R83" t="s">
+        <v>570</v>
+      </c>
+      <c r="S83" t="s">
+        <v>305</v>
+      </c>
+      <c r="T83" t="s">
+        <v>183</v>
+      </c>
+      <c r="U83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G84" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I84" s="1">
+        <v>45288</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="M84" t="s">
+        <v>285</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O84" t="s">
+        <v>380</v>
+      </c>
+      <c r="R84" t="s">
+        <v>571</v>
+      </c>
+      <c r="U84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85">
+        <v>250</v>
+      </c>
+      <c r="C85">
+        <v>250</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" t="s">
+        <v>419</v>
+      </c>
+      <c r="F85" t="s">
+        <v>420</v>
+      </c>
+      <c r="H85" t="s">
+        <v>322</v>
+      </c>
+      <c r="I85" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="N85" t="s">
+        <v>421</v>
+      </c>
+      <c r="O85" t="s">
+        <v>422</v>
+      </c>
+      <c r="P85" t="s">
+        <v>423</v>
+      </c>
+      <c r="R85" t="s">
+        <v>572</v>
+      </c>
+      <c r="U85" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>424</v>
+      </c>
+      <c r="F86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" s="1">
+        <v>45378</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="N86" t="s">
+        <v>425</v>
+      </c>
+      <c r="O86" t="s">
+        <v>426</v>
+      </c>
+      <c r="R86" t="s">
+        <v>573</v>
+      </c>
+      <c r="U86" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>427</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="1">
+        <v>45490</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="N87" t="s">
+        <v>428</v>
+      </c>
+      <c r="O87" t="s">
+        <v>429</v>
+      </c>
+      <c r="R87" t="s">
+        <v>574</v>
+      </c>
+      <c r="U87" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>430</v>
+      </c>
+      <c r="B88">
+        <v>120</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G88" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" t="s">
+        <v>62</v>
+      </c>
+      <c r="I88" s="1">
+        <v>45540</v>
+      </c>
+      <c r="J88" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="M88" t="s">
+        <v>432</v>
+      </c>
+      <c r="N88" t="s">
+        <v>433</v>
+      </c>
+      <c r="O88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P88" t="s">
+        <v>435</v>
+      </c>
+      <c r="R88" t="s">
+        <v>575</v>
+      </c>
+      <c r="U88" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>436</v>
+      </c>
+      <c r="F89" t="s">
+        <v>437</v>
+      </c>
+      <c r="G89" t="s">
+        <v>438</v>
+      </c>
+      <c r="I89" s="1">
+        <v>45545</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="L89" t="s">
+        <v>439</v>
+      </c>
+      <c r="N89" t="s">
+        <v>440</v>
+      </c>
+      <c r="O89" t="s">
+        <v>352</v>
+      </c>
+      <c r="P89" t="s">
+        <v>441</v>
+      </c>
+      <c r="R89" t="s">
+        <v>506</v>
+      </c>
+      <c r="U89" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="F90" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" t="s">
+        <v>322</v>
+      </c>
+      <c r="I90" s="1">
+        <v>45590</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="L90" t="s">
+        <v>444</v>
+      </c>
+      <c r="N90" t="s">
+        <v>445</v>
+      </c>
+      <c r="O90" t="s">
+        <v>446</v>
+      </c>
+      <c r="P90" t="s">
+        <v>447</v>
+      </c>
+      <c r="R90" t="s">
+        <v>507</v>
+      </c>
+      <c r="U90" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91">
+        <v>1200</v>
+      </c>
+      <c r="C91">
+        <v>300</v>
+      </c>
+      <c r="D91" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" s="1">
+        <v>45673</v>
+      </c>
+      <c r="J91" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L91" t="s">
+        <v>448</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O91" t="s">
+        <v>450</v>
+      </c>
+      <c r="P91" t="s">
+        <v>451</v>
+      </c>
+      <c r="R91" t="s">
+        <v>499</v>
+      </c>
+      <c r="U91" t="s">
+        <v>657</v>
+      </c>
+      <c r="V91" t="s">
+        <v>277</v>
+      </c>
+      <c r="W91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>452</v>
+      </c>
+      <c r="E92" t="s">
+        <v>453</v>
+      </c>
+      <c r="F92" t="s">
+        <v>454</v>
+      </c>
+      <c r="G92" t="s">
+        <v>229</v>
+      </c>
+      <c r="H92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I92" s="1">
+        <v>45547</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
+        <v>455</v>
+      </c>
+      <c r="N92" t="s">
+        <v>456</v>
+      </c>
+      <c r="O92" t="s">
+        <v>457</v>
+      </c>
+      <c r="P92" t="s">
+        <v>458</v>
+      </c>
+      <c r="R92" t="s">
+        <v>508</v>
+      </c>
+      <c r="U92" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93">
+        <v>80</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" t="s">
+        <v>154</v>
+      </c>
+      <c r="H93" t="s">
+        <v>222</v>
+      </c>
+      <c r="I93" s="1">
+        <v>45411</v>
+      </c>
+      <c r="J93" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>460</v>
+      </c>
+      <c r="O93" t="s">
+        <v>461</v>
+      </c>
+      <c r="P93" t="s">
+        <v>462</v>
+      </c>
+      <c r="R93" t="s">
+        <v>576</v>
+      </c>
+      <c r="U93" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>463</v>
+      </c>
+      <c r="B94">
+        <v>600</v>
+      </c>
+      <c r="C94">
+        <v>300</v>
+      </c>
+      <c r="F94" t="s">
+        <v>464</v>
+      </c>
+      <c r="G94" t="s">
+        <v>154</v>
+      </c>
+      <c r="H94" t="s">
+        <v>62</v>
+      </c>
+      <c r="I94" s="1">
+        <v>45707</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>465</v>
+      </c>
+      <c r="M94" t="s">
+        <v>466</v>
+      </c>
+      <c r="N94" t="s">
+        <v>467</v>
+      </c>
+      <c r="O94" t="s">
+        <v>201</v>
+      </c>
+      <c r="P94" t="s">
+        <v>468</v>
+      </c>
+      <c r="R94" t="s">
+        <v>493</v>
+      </c>
+      <c r="U94" t="s">
+        <v>660</v>
+      </c>
+      <c r="V94" t="s">
+        <v>470</v>
+      </c>
+      <c r="W94" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>472</v>
+      </c>
+      <c r="I95" s="1">
+        <v>45709</v>
+      </c>
+      <c r="N95" t="s">
+        <v>473</v>
+      </c>
+      <c r="O95" t="s">
+        <v>474</v>
+      </c>
+      <c r="R95" t="s">
+        <v>577</v>
+      </c>
+      <c r="U95" t="s">
+        <v>475</v>
+      </c>
+      <c r="V95" t="s">
+        <v>480</v>
+      </c>
+      <c r="X95" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC03384-3868-4820-AFDA-7401B9D15C84}">
   <dimension ref="A1:Z95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R2" sqref="R2:R95"/>
@@ -3452,7 +7160,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>737</v>
+        <v>510</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
@@ -3499,7 +7207,7 @@
         <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>738</v>
+        <v>511</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
@@ -3537,7 +7245,7 @@
         <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>739</v>
+        <v>512</v>
       </c>
       <c r="U4" t="s">
         <v>46</v>
@@ -3570,7 +7278,7 @@
         <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>740</v>
+        <v>513</v>
       </c>
       <c r="U5" t="s">
         <v>53</v>
@@ -3602,7 +7310,7 @@
         <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>741</v>
+        <v>514</v>
       </c>
       <c r="U6" t="s">
         <v>59</v>
@@ -3629,7 +7337,7 @@
         <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>742</v>
+        <v>515</v>
       </c>
       <c r="U7" t="s">
         <v>65</v>
@@ -3664,7 +7372,7 @@
         <v>68</v>
       </c>
       <c r="R8" t="s">
-        <v>743</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -3694,7 +7402,7 @@
         <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>744</v>
+        <v>517</v>
       </c>
       <c r="U9" t="s">
         <v>74</v>
@@ -3724,7 +7432,7 @@
         <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>742</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -3800,7 +7508,7 @@
         <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>745</v>
+        <v>518</v>
       </c>
       <c r="S12" t="s">
         <v>86</v>
@@ -3844,7 +7552,7 @@
         <v>92</v>
       </c>
       <c r="R13" t="s">
-        <v>746</v>
+        <v>519</v>
       </c>
       <c r="S13" t="s">
         <v>93</v>
@@ -3891,7 +7599,7 @@
         <v>92</v>
       </c>
       <c r="R14" t="s">
-        <v>747</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -3932,7 +7640,7 @@
         <v>92</v>
       </c>
       <c r="R15" t="s">
-        <v>748</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -3973,7 +7681,7 @@
         <v>92</v>
       </c>
       <c r="R16" t="s">
-        <v>749</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -4014,7 +7722,7 @@
         <v>108</v>
       </c>
       <c r="R17" t="s">
-        <v>750</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -4055,7 +7763,7 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>751</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4093,7 +7801,7 @@
         <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>752</v>
+        <v>525</v>
       </c>
       <c r="S19" t="s">
         <v>118</v>
@@ -4140,7 +7848,7 @@
         <v>92</v>
       </c>
       <c r="R20" t="s">
-        <v>753</v>
+        <v>526</v>
       </c>
       <c r="S20" t="s">
         <v>123</v>
@@ -4187,7 +7895,7 @@
         <v>92</v>
       </c>
       <c r="R21" t="s">
-        <v>754</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -4225,7 +7933,7 @@
         <v>92</v>
       </c>
       <c r="R22" t="s">
-        <v>755</v>
+        <v>528</v>
       </c>
       <c r="S22" t="s">
         <v>123</v>
@@ -4269,7 +7977,7 @@
         <v>92</v>
       </c>
       <c r="R23" t="s">
-        <v>756</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -4307,7 +8015,7 @@
         <v>92</v>
       </c>
       <c r="R24" t="s">
-        <v>748</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -4345,7 +8053,7 @@
         <v>92</v>
       </c>
       <c r="R25" t="s">
-        <v>757</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -4380,7 +8088,7 @@
         <v>134</v>
       </c>
       <c r="R26" t="s">
-        <v>758</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -4421,7 +8129,7 @@
         <v>92</v>
       </c>
       <c r="R27" t="s">
-        <v>759</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -4459,7 +8167,7 @@
         <v>92</v>
       </c>
       <c r="R28" t="s">
-        <v>760</v>
+        <v>533</v>
       </c>
       <c r="S28" t="s">
         <v>123</v>
@@ -4497,7 +8205,7 @@
         <v>68</v>
       </c>
       <c r="R29" t="s">
-        <v>761</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -4529,7 +8237,7 @@
         <v>68</v>
       </c>
       <c r="R30" t="s">
-        <v>762</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -4561,7 +8269,7 @@
         <v>149</v>
       </c>
       <c r="R31" t="s">
-        <v>763</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -4608,7 +8316,7 @@
         <v>158</v>
       </c>
       <c r="R32" t="s">
-        <v>764</v>
+        <v>537</v>
       </c>
       <c r="S32" t="s">
         <v>159</v>
@@ -4655,7 +8363,7 @@
         <v>164</v>
       </c>
       <c r="R33" t="s">
-        <v>765</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -4693,7 +8401,7 @@
         <v>164</v>
       </c>
       <c r="R34" t="s">
-        <v>761</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
@@ -4731,7 +8439,7 @@
         <v>170</v>
       </c>
       <c r="R35" t="s">
-        <v>766</v>
+        <v>539</v>
       </c>
       <c r="S35" t="s">
         <v>123</v>
@@ -4764,7 +8472,7 @@
         <v>175</v>
       </c>
       <c r="R36" t="s">
-        <v>767</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4799,7 +8507,7 @@
         <v>170</v>
       </c>
       <c r="R37" t="s">
-        <v>768</v>
+        <v>541</v>
       </c>
       <c r="S37" t="s">
         <v>123</v>
@@ -4843,7 +8551,7 @@
         <v>170</v>
       </c>
       <c r="R38" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
       <c r="S38" t="s">
         <v>123</v>
@@ -4887,7 +8595,7 @@
         <v>170</v>
       </c>
       <c r="R39" t="s">
-        <v>770</v>
+        <v>543</v>
       </c>
       <c r="S39" t="s">
         <v>118</v>
@@ -4925,7 +8633,7 @@
         <v>170</v>
       </c>
       <c r="R40" t="s">
-        <v>771</v>
+        <v>544</v>
       </c>
       <c r="S40" t="s">
         <v>123</v>
@@ -4995,7 +8703,7 @@
         <v>195</v>
       </c>
       <c r="R42" t="s">
-        <v>747</v>
+        <v>520</v>
       </c>
       <c r="S42" t="s">
         <v>159</v>
@@ -5045,7 +8753,7 @@
         <v>201</v>
       </c>
       <c r="R43" t="s">
-        <v>772</v>
+        <v>545</v>
       </c>
       <c r="S43" t="s">
         <v>159</v>
@@ -5101,7 +8809,7 @@
         <v>209</v>
       </c>
       <c r="R44" t="s">
-        <v>773</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -5128,7 +8836,7 @@
         <v>213</v>
       </c>
       <c r="R45" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -5152,7 +8860,7 @@
         <v>170</v>
       </c>
       <c r="R46" t="s">
-        <v>774</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5178,7 +8886,7 @@
         <v>218</v>
       </c>
       <c r="R47" t="s">
-        <v>775</v>
+        <v>548</v>
       </c>
       <c r="S47" t="s">
         <v>123</v>
@@ -5228,7 +8936,7 @@
         <v>226</v>
       </c>
       <c r="R48" t="s">
-        <v>776</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -5272,7 +8980,7 @@
         <v>208</v>
       </c>
       <c r="R49" t="s">
-        <v>777</v>
+        <v>550</v>
       </c>
       <c r="U49" t="s">
         <v>233</v>
@@ -5311,7 +9019,7 @@
         <v>238</v>
       </c>
       <c r="R50" t="s">
-        <v>778</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -5379,7 +9087,7 @@
         <v>250</v>
       </c>
       <c r="R52" t="s">
-        <v>779</v>
+        <v>552</v>
       </c>
       <c r="U52" t="s">
         <v>251</v>
@@ -5432,7 +9140,7 @@
         <v>260</v>
       </c>
       <c r="R53" t="s">
-        <v>780</v>
+        <v>553</v>
       </c>
       <c r="S53" t="s">
         <v>118</v>
@@ -5609,7 +9317,7 @@
         <v>288</v>
       </c>
       <c r="R56" t="s">
-        <v>781</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5647,7 +9355,7 @@
         <v>286</v>
       </c>
       <c r="R57" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
       <c r="S57" t="s">
         <v>159</v>
@@ -5800,7 +9508,7 @@
         <v>304</v>
       </c>
       <c r="R60" t="s">
-        <v>782</v>
+        <v>555</v>
       </c>
       <c r="S60" t="s">
         <v>305</v>
@@ -5847,7 +9555,7 @@
         <v>308</v>
       </c>
       <c r="R61" t="s">
-        <v>783</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5871,7 +9579,7 @@
         <v>212</v>
       </c>
       <c r="R62" t="s">
-        <v>784</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5912,7 +9620,7 @@
         <v>317</v>
       </c>
       <c r="R63" t="s">
-        <v>785</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5945,7 +9653,7 @@
         <v>320</v>
       </c>
       <c r="R64" t="s">
-        <v>786</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -6075,7 +9783,7 @@
         <v>335</v>
       </c>
       <c r="R67" t="s">
-        <v>787</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -6116,7 +9824,7 @@
         <v>338</v>
       </c>
       <c r="R68" t="s">
-        <v>788</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -6154,7 +9862,7 @@
         <v>338</v>
       </c>
       <c r="R69" t="s">
-        <v>789</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -6193,7 +9901,7 @@
         <v>348</v>
       </c>
       <c r="R70" t="s">
-        <v>790</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6258,7 +9966,7 @@
         <v>359</v>
       </c>
       <c r="R72" t="s">
-        <v>791</v>
+        <v>564</v>
       </c>
       <c r="S72" t="s">
         <v>118</v>
@@ -6311,7 +10019,7 @@
         <v>365</v>
       </c>
       <c r="R73" t="s">
-        <v>792</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6364,7 +10072,7 @@
         <v>372</v>
       </c>
       <c r="R74" t="s">
-        <v>793</v>
+        <v>566</v>
       </c>
       <c r="S74" t="s">
         <v>305</v>
@@ -6423,7 +10131,7 @@
         <v>372</v>
       </c>
       <c r="R75" t="s">
-        <v>793</v>
+        <v>566</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>375</v>
@@ -6512,7 +10220,7 @@
         <v>388</v>
       </c>
       <c r="R77" t="s">
-        <v>794</v>
+        <v>567</v>
       </c>
       <c r="S77" t="s">
         <v>305</v>
@@ -6542,7 +10250,7 @@
         <v>392</v>
       </c>
       <c r="R78" t="s">
-        <v>795</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6586,7 +10294,7 @@
         <v>398</v>
       </c>
       <c r="R79" t="s">
-        <v>796</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6633,7 +10341,7 @@
         <v>401</v>
       </c>
       <c r="R80" t="s">
-        <v>782</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
@@ -6769,7 +10477,7 @@
         <v>415</v>
       </c>
       <c r="R83" t="s">
-        <v>797</v>
+        <v>570</v>
       </c>
       <c r="S83" t="s">
         <v>305</v>
@@ -6805,7 +10513,7 @@
         <v>380</v>
       </c>
       <c r="R84" t="s">
-        <v>798</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
@@ -6846,7 +10554,7 @@
         <v>423</v>
       </c>
       <c r="R85" t="s">
-        <v>799</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
@@ -6867,7 +10575,7 @@
         <v>426</v>
       </c>
       <c r="R86" t="s">
-        <v>800</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
@@ -6888,7 +10596,7 @@
         <v>429</v>
       </c>
       <c r="R87" t="s">
-        <v>801</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
@@ -6929,7 +10637,7 @@
         <v>435</v>
       </c>
       <c r="R88" t="s">
-        <v>802</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
@@ -7124,7 +10832,7 @@
         <v>462</v>
       </c>
       <c r="R93" t="s">
-        <v>803</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
@@ -7194,7 +10902,7 @@
         <v>474</v>
       </c>
       <c r="R95" t="s">
-        <v>804</v>
+        <v>577</v>
       </c>
       <c r="U95" t="s">
         <v>475</v>
@@ -7211,7 +10919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43106BB-6FC4-4710-A948-F6603AF75DE3}">
   <dimension ref="A1:CF1"/>
   <sheetViews>
@@ -7480,7 +11188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24F4FF9-2601-4A0B-91E3-A1D8505FD0F3}">
   <dimension ref="A1:A84"/>
   <sheetViews>
@@ -7918,7 +11626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B42B962-E882-4E55-BDFC-5C458B0C06F0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7938,7 +11646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD99151-E317-4A2A-8CCE-4E293DCC8A37}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7958,7 +11666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E84A4D7-1F3D-4160-9527-4BC3BF53DE95}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7968,1219 +11676,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7627A4A-9D55-4FD7-A8AA-40E74705E373}">
-  <dimension ref="A1:F94"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" t="s">
-        <v>531</v>
-      </c>
-      <c r="E7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>535</v>
-      </c>
-      <c r="B10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>539</v>
-      </c>
-      <c r="D11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>541</v>
-      </c>
-      <c r="B12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12" t="s">
-        <v>530</v>
-      </c>
-      <c r="D12" t="s">
-        <v>531</v>
-      </c>
-      <c r="E12" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>543</v>
-      </c>
-      <c r="B13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C13" t="s">
-        <v>539</v>
-      </c>
-      <c r="D13" t="s">
-        <v>531</v>
-      </c>
-      <c r="E13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C14" t="s">
-        <v>539</v>
-      </c>
-      <c r="D14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>547</v>
-      </c>
-      <c r="B15" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>549</v>
-      </c>
-      <c r="B16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C16" t="s">
-        <v>550</v>
-      </c>
-      <c r="D16" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>552</v>
-      </c>
-      <c r="B17" t="s">
-        <v>529</v>
-      </c>
-      <c r="C17" t="s">
-        <v>553</v>
-      </c>
-      <c r="D17" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>557</v>
-      </c>
-      <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" t="s">
-        <v>558</v>
-      </c>
-      <c r="D19" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>560</v>
-      </c>
-      <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D20" t="s">
-        <v>536</v>
-      </c>
-      <c r="E20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>562</v>
-      </c>
-      <c r="B21" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" t="s">
-        <v>539</v>
-      </c>
-      <c r="D21" t="s">
-        <v>563</v>
-      </c>
-      <c r="E21" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>565</v>
-      </c>
-      <c r="B22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C22" t="s">
-        <v>566</v>
-      </c>
-      <c r="D22" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>545</v>
-      </c>
-      <c r="B23" t="s">
-        <v>529</v>
-      </c>
-      <c r="C23" t="s">
-        <v>539</v>
-      </c>
-      <c r="D23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E23" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>568</v>
-      </c>
-      <c r="B24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C24" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" t="s">
-        <v>563</v>
-      </c>
-      <c r="E24" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>570</v>
-      </c>
-      <c r="B25" t="s">
-        <v>529</v>
-      </c>
-      <c r="C25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D25" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B26" t="s">
-        <v>529</v>
-      </c>
-      <c r="C26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" t="s">
-        <v>574</v>
-      </c>
-      <c r="E26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>576</v>
-      </c>
-      <c r="B27" t="s">
-        <v>529</v>
-      </c>
-      <c r="C27" t="s">
-        <v>539</v>
-      </c>
-      <c r="D27" t="s">
-        <v>531</v>
-      </c>
-      <c r="E27" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>578</v>
-      </c>
-      <c r="B28" t="s">
-        <v>529</v>
-      </c>
-      <c r="C28" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" t="s">
-        <v>531</v>
-      </c>
-      <c r="E28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>580</v>
-      </c>
-      <c r="B29" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>582</v>
-      </c>
-      <c r="B30" t="s">
-        <v>583</v>
-      </c>
-      <c r="C30" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>585</v>
-      </c>
-      <c r="B31" t="s">
-        <v>517</v>
-      </c>
-      <c r="C31" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>587</v>
-      </c>
-      <c r="B32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C32" t="s">
-        <v>530</v>
-      </c>
-      <c r="D32" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>578</v>
-      </c>
-      <c r="B33" t="s">
-        <v>529</v>
-      </c>
-      <c r="C33" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" t="s">
-        <v>531</v>
-      </c>
-      <c r="E33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>589</v>
-      </c>
-      <c r="B34" t="s">
-        <v>529</v>
-      </c>
-      <c r="C34" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>591</v>
-      </c>
-      <c r="B35" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>593</v>
-      </c>
-      <c r="B36" t="s">
-        <v>529</v>
-      </c>
-      <c r="C36" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>595</v>
-      </c>
-      <c r="B37" t="s">
-        <v>529</v>
-      </c>
-      <c r="C37" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>597</v>
-      </c>
-      <c r="B38" t="s">
-        <v>529</v>
-      </c>
-      <c r="C38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>599</v>
-      </c>
-      <c r="B39" t="s">
-        <v>529</v>
-      </c>
-      <c r="C39" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>601</v>
-      </c>
-      <c r="B40" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>543</v>
-      </c>
-      <c r="B41" t="s">
-        <v>529</v>
-      </c>
-      <c r="C41" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>603</v>
-      </c>
-      <c r="B42" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>605</v>
-      </c>
-      <c r="B43" t="s">
-        <v>606</v>
-      </c>
-      <c r="C43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>608</v>
-      </c>
-      <c r="B44" t="s">
-        <v>566</v>
-      </c>
-      <c r="C44" t="s">
-        <v>539</v>
-      </c>
-      <c r="D44" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>610</v>
-      </c>
-      <c r="B45" t="s">
-        <v>529</v>
-      </c>
-      <c r="C45" t="s">
-        <v>611</v>
-      </c>
-      <c r="D45" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>613</v>
-      </c>
-      <c r="B46" t="s">
-        <v>529</v>
-      </c>
-      <c r="C46" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>615</v>
-      </c>
-      <c r="B47" t="s">
-        <v>616</v>
-      </c>
-      <c r="C47" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>618</v>
-      </c>
-      <c r="B48" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>620</v>
-      </c>
-      <c r="B49" t="s">
-        <v>621</v>
-      </c>
-      <c r="C49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>623</v>
-      </c>
-      <c r="B50" t="s">
-        <v>624</v>
-      </c>
-      <c r="C50" t="s">
-        <v>625</v>
-      </c>
-      <c r="D50" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>627</v>
-      </c>
-      <c r="B51" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>629</v>
-      </c>
-      <c r="B52" t="s">
-        <v>630</v>
-      </c>
-      <c r="C52" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>632</v>
-      </c>
-      <c r="B53" t="s">
-        <v>633</v>
-      </c>
-      <c r="C53" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>635</v>
-      </c>
-      <c r="B54" t="s">
-        <v>636</v>
-      </c>
-      <c r="C54" t="s">
-        <v>637</v>
-      </c>
-      <c r="D54" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>639</v>
-      </c>
-      <c r="B55" t="s">
-        <v>529</v>
-      </c>
-      <c r="C55" t="s">
-        <v>640</v>
-      </c>
-      <c r="D55" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>595</v>
-      </c>
-      <c r="B56" t="s">
-        <v>529</v>
-      </c>
-      <c r="C56" t="s">
-        <v>641</v>
-      </c>
-      <c r="D56" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>635</v>
-      </c>
-      <c r="B57" t="s">
-        <v>636</v>
-      </c>
-      <c r="C57" t="s">
-        <v>637</v>
-      </c>
-      <c r="D57" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>643</v>
-      </c>
-      <c r="B58" t="s">
-        <v>644</v>
-      </c>
-      <c r="C58" t="s">
-        <v>645</v>
-      </c>
-      <c r="D58" t="s">
-        <v>646</v>
-      </c>
-      <c r="E58" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>648</v>
-      </c>
-      <c r="B59" t="s">
-        <v>636</v>
-      </c>
-      <c r="C59" t="s">
-        <v>649</v>
-      </c>
-      <c r="D59" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>651</v>
-      </c>
-      <c r="B60" t="s">
-        <v>517</v>
-      </c>
-      <c r="C60" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>653</v>
-      </c>
-      <c r="B61" t="s">
-        <v>529</v>
-      </c>
-      <c r="C61" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>655</v>
-      </c>
-      <c r="B62" t="s">
-        <v>636</v>
-      </c>
-      <c r="C62" t="s">
-        <v>656</v>
-      </c>
-      <c r="D62" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>658</v>
-      </c>
-      <c r="B63" t="s">
-        <v>529</v>
-      </c>
-      <c r="C63" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>660</v>
-      </c>
-      <c r="B64" t="s">
-        <v>661</v>
-      </c>
-      <c r="C64" t="s">
-        <v>662</v>
-      </c>
-      <c r="D64" t="s">
-        <v>663</v>
-      </c>
-      <c r="E64" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>635</v>
-      </c>
-      <c r="B65" t="s">
-        <v>636</v>
-      </c>
-      <c r="C65" t="s">
-        <v>637</v>
-      </c>
-      <c r="D65" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>665</v>
-      </c>
-      <c r="B66" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>667</v>
-      </c>
-      <c r="B67" t="s">
-        <v>529</v>
-      </c>
-      <c r="C67" t="s">
-        <v>668</v>
-      </c>
-      <c r="D67" t="s">
-        <v>669</v>
-      </c>
-      <c r="E67" t="s">
-        <v>670</v>
-      </c>
-      <c r="F67" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>672</v>
-      </c>
-      <c r="B68" t="s">
-        <v>529</v>
-      </c>
-      <c r="C68" t="s">
-        <v>668</v>
-      </c>
-      <c r="D68" t="s">
-        <v>673</v>
-      </c>
-      <c r="E68" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>675</v>
-      </c>
-      <c r="B69" t="s">
-        <v>676</v>
-      </c>
-      <c r="C69" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>678</v>
-      </c>
-      <c r="B70" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" t="s">
-        <v>681</v>
-      </c>
-      <c r="C71" t="s">
-        <v>682</v>
-      </c>
-      <c r="D71" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>684</v>
-      </c>
-      <c r="B72" t="s">
-        <v>685</v>
-      </c>
-      <c r="C72" t="s">
-        <v>686</v>
-      </c>
-      <c r="D72" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>688</v>
-      </c>
-      <c r="B73" t="s">
-        <v>685</v>
-      </c>
-      <c r="C73" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>688</v>
-      </c>
-      <c r="B74" t="s">
-        <v>685</v>
-      </c>
-      <c r="C74" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>643</v>
-      </c>
-      <c r="B75" t="s">
-        <v>644</v>
-      </c>
-      <c r="C75" t="s">
-        <v>645</v>
-      </c>
-      <c r="D75" t="s">
-        <v>646</v>
-      </c>
-      <c r="E75" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>690</v>
-      </c>
-      <c r="B76" t="s">
-        <v>685</v>
-      </c>
-      <c r="C76" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>692</v>
-      </c>
-      <c r="B77" t="s">
-        <v>693</v>
-      </c>
-      <c r="C77" t="s">
-        <v>694</v>
-      </c>
-      <c r="D77" t="s">
-        <v>695</v>
-      </c>
-      <c r="E77" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>696</v>
-      </c>
-      <c r="B78" t="s">
-        <v>697</v>
-      </c>
-      <c r="C78" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>648</v>
-      </c>
-      <c r="B79" t="s">
-        <v>636</v>
-      </c>
-      <c r="C79" t="s">
-        <v>649</v>
-      </c>
-      <c r="D79" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>699</v>
-      </c>
-      <c r="B80" t="s">
-        <v>700</v>
-      </c>
-      <c r="C80" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>678</v>
-      </c>
-      <c r="B81" t="s">
-        <v>702</v>
-      </c>
-      <c r="C81" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>704</v>
-      </c>
-      <c r="B82" t="s">
-        <v>705</v>
-      </c>
-      <c r="C82" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>707</v>
-      </c>
-      <c r="B83" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>709</v>
-      </c>
-      <c r="B84" t="s">
-        <v>636</v>
-      </c>
-      <c r="C84" t="s">
-        <v>710</v>
-      </c>
-      <c r="D84" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>712</v>
-      </c>
-      <c r="B85" t="s">
-        <v>713</v>
-      </c>
-      <c r="C85" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>715</v>
-      </c>
-      <c r="B86" t="s">
-        <v>636</v>
-      </c>
-      <c r="C86" t="s">
-        <v>716</v>
-      </c>
-      <c r="D86" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>718</v>
-      </c>
-      <c r="B87" t="s">
-        <v>636</v>
-      </c>
-      <c r="C87" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>721</v>
-      </c>
-      <c r="B89" t="s">
-        <v>722</v>
-      </c>
-      <c r="C89" t="s">
-        <v>723</v>
-      </c>
-      <c r="D89" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>635</v>
-      </c>
-      <c r="B90" t="s">
-        <v>636</v>
-      </c>
-      <c r="C90" t="s">
-        <v>637</v>
-      </c>
-      <c r="D90" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>725</v>
-      </c>
-      <c r="B91" t="s">
-        <v>726</v>
-      </c>
-      <c r="C91" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>728</v>
-      </c>
-      <c r="B92" t="s">
-        <v>636</v>
-      </c>
-      <c r="C92" t="s">
-        <v>729</v>
-      </c>
-      <c r="D92" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>731</v>
-      </c>
-      <c r="B93" t="s">
-        <v>732</v>
-      </c>
-      <c r="C93" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>734</v>
-      </c>
-      <c r="B94" t="s">
-        <v>735</v>
-      </c>
-      <c r="C94" t="s">
-        <v>736</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Failure_DB_List_2_updated.xlsx
+++ b/Failure_DB_List_2_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QT 2025\BESS Failure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B8561-F8BA-48D8-AA02-37A973EB9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5219B3-905B-4229-9D40-1A4DC8A69908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798CB373-87E7-49EA-BBB3-39A2A4BDAAA9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="676">
   <si>
     <t>Location</t>
   </si>
@@ -2029,6 +2029,51 @@
   </si>
   <si>
     <t>https://www.pressandjournal.co.uk/battery-fire-rothienorman-incident-report</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -2875,13 +2920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497C55DF-93CF-4D1D-A370-8C68827540EC}">
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:U94"/>
+      <selection pane="bottomRight" activeCell="AA96" sqref="AA96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,9 +2953,10 @@
     <col min="23" max="23" width="104.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="169.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2989,8 +3035,11 @@
       <c r="Z1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3028,8 +3077,11 @@
       <c r="V2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3078,8 +3130,11 @@
       <c r="W3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3113,8 +3168,11 @@
       <c r="V4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3143,8 +3201,11 @@
       <c r="U5" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -3178,8 +3239,11 @@
       <c r="V6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -3202,8 +3266,11 @@
       <c r="U7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3237,8 +3304,11 @@
       <c r="U8" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -3276,8 +3346,11 @@
       <c r="W9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3300,8 +3373,11 @@
       <c r="U10" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3341,8 +3417,11 @@
       <c r="U11" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -3385,8 +3464,11 @@
       <c r="U12" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3435,8 +3517,11 @@
       <c r="U13" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3479,8 +3564,11 @@
       <c r="U14" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -3523,8 +3611,11 @@
       <c r="U15" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -3567,8 +3658,11 @@
       <c r="U16" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -3611,8 +3705,11 @@
       <c r="U17" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA17" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -3655,8 +3752,11 @@
       <c r="U18" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3702,8 +3802,11 @@
       <c r="U19" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -3752,8 +3855,11 @@
       <c r="U20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -3796,8 +3902,11 @@
       <c r="U21" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3843,8 +3952,11 @@
       <c r="U22" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -3884,8 +3996,11 @@
       <c r="U23" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -3925,8 +4040,11 @@
       <c r="U24" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3966,8 +4084,11 @@
       <c r="U25" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA25" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4004,8 +4125,11 @@
       <c r="U26" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -4048,8 +4172,11 @@
       <c r="U27" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA27" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4095,8 +4222,11 @@
       <c r="U28" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4130,8 +4260,11 @@
       <c r="U29" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA29" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4165,8 +4298,11 @@
       <c r="U30" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA30" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4200,8 +4336,11 @@
       <c r="U31" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -4256,8 +4395,11 @@
       <c r="U32" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -4300,8 +4442,11 @@
       <c r="U33" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -4341,8 +4486,11 @@
       <c r="U34" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AA34" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -4388,8 +4536,11 @@
       <c r="U35" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>171</v>
       </c>
@@ -4418,8 +4569,11 @@
       <c r="U36" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -4462,8 +4616,11 @@
       <c r="U37" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AA37" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -4509,8 +4666,11 @@
       <c r="U38" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AA38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -4556,8 +4716,11 @@
       <c r="U39" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AA39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -4597,8 +4760,11 @@
       <c r="U40" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA40" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -4626,8 +4792,11 @@
       <c r="U41" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -4673,8 +4842,11 @@
       <c r="U42" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA42" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -4726,8 +4898,11 @@
       <c r="U43" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -4779,8 +4954,11 @@
       <c r="U44" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA44" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>210</v>
       </c>
@@ -4809,8 +4987,11 @@
       <c r="U45" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA45" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -4836,8 +5017,11 @@
       <c r="U46" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -4871,8 +5055,11 @@
       <c r="U47" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA47" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -4918,8 +5105,11 @@
       <c r="U48" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>227</v>
       </c>
@@ -4971,8 +5161,11 @@
       <c r="W49" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA49" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -5004,8 +5197,11 @@
       <c r="U50" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA50" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -5034,8 +5230,11 @@
       <c r="U51" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA51" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W52" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA52" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -5137,8 +5339,11 @@
       <c r="U53" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA53" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>261</v>
       </c>
@@ -5205,8 +5410,11 @@
       <c r="W54" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA54" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -5261,8 +5469,11 @@
       <c r="W55" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA55" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>279</v>
       </c>
@@ -5311,8 +5522,11 @@
       <c r="U56" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA56" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>289</v>
       </c>
@@ -5358,8 +5572,11 @@
       <c r="U57" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA57" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>270</v>
       </c>
@@ -5420,8 +5637,11 @@
       <c r="W58" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA58" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>297</v>
       </c>
@@ -5464,8 +5684,11 @@
       <c r="U59" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA59" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -5517,8 +5740,11 @@
       <c r="U60" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA60" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -5561,8 +5787,11 @@
       <c r="U61" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA61" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>309</v>
       </c>
@@ -5588,8 +5817,11 @@
       <c r="U62" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA62" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>311</v>
       </c>
@@ -5632,8 +5864,11 @@
       <c r="U63" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA63" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -5668,8 +5903,11 @@
       <c r="U64" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA64" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>321</v>
       </c>
@@ -5698,8 +5936,11 @@
       <c r="U65" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA65" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -5760,8 +6001,11 @@
       <c r="W66" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA66" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>331</v>
       </c>
@@ -5804,8 +6048,11 @@
       <c r="U67" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA67" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>336</v>
       </c>
@@ -5848,8 +6095,11 @@
       <c r="U68" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA68" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -5889,8 +6139,11 @@
       <c r="U69" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA69" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>342</v>
       </c>
@@ -5931,8 +6184,11 @@
       <c r="U70" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA70" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>349</v>
       </c>
@@ -5958,8 +6214,11 @@
       <c r="U71" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA71" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -6008,8 +6267,11 @@
       <c r="U72" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA72" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -6058,8 +6320,11 @@
       <c r="U73" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>366</v>
       </c>
@@ -6120,8 +6385,11 @@
       <c r="U74" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA74" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -6182,8 +6450,11 @@
       <c r="U75" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>297</v>
       </c>
@@ -6218,8 +6489,11 @@
       <c r="U76" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA76" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -6277,8 +6551,11 @@
       <c r="U77" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA77" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>389</v>
       </c>
@@ -6304,8 +6581,11 @@
       <c r="U78" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA78" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>393</v>
       </c>
@@ -6351,8 +6631,11 @@
       <c r="U79" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA79" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>300</v>
       </c>
@@ -6401,8 +6684,11 @@
       <c r="U80" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>402</v>
       </c>
@@ -6454,8 +6740,11 @@
       <c r="U81" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA81" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>405</v>
       </c>
@@ -6493,8 +6782,11 @@
       <c r="U82" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA82" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>410</v>
       </c>
@@ -6552,8 +6844,11 @@
       <c r="U83" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA83" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>416</v>
       </c>
@@ -6585,8 +6880,11 @@
       <c r="U84" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA84" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -6629,8 +6927,11 @@
       <c r="U85" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA85" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>424</v>
       </c>
@@ -6653,8 +6954,11 @@
       <c r="U86" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>427</v>
       </c>
@@ -6677,8 +6981,11 @@
       <c r="U87" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA87" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>430</v>
       </c>
@@ -6721,8 +7028,11 @@
       <c r="U88" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA88" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>436</v>
       </c>
@@ -6754,8 +7064,11 @@
       <c r="U89" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>442</v>
       </c>
@@ -6787,8 +7100,11 @@
       <c r="U90" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AA90" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -6843,8 +7159,11 @@
       <c r="W91" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA91" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>452</v>
       </c>
@@ -6884,8 +7203,11 @@
       <c r="U92" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA92" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>459</v>
       </c>
@@ -6928,8 +7250,11 @@
       <c r="U93" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA93" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>463</v>
       </c>
@@ -6981,8 +7306,11 @@
       <c r="W94" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA94" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>472</v>
       </c>
@@ -7006,6 +7334,9 @@
       </c>
       <c r="X95" t="s">
         <v>479</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
